--- a/Data/EC/NIT-8904042738.xlsx
+++ b/Data/EC/NIT-8904042738.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B65099-7262-4E3C-87D8-E4287542B086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A51DB993-5421-44B8-A5D0-410A56B21F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A060DDE7-639D-4A56-AB6E-08279B840963}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF1024E3-F18A-46E2-9440-F76BA4E93362}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="80">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,199 +65,184 @@
     <t>CC</t>
   </si>
   <si>
-    <t>34990754</t>
-  </si>
-  <si>
-    <t>ESTELA INES DIAZ VEGA</t>
+    <t>1127586739</t>
+  </si>
+  <si>
+    <t>CARLOS ENRIQUE HURTADO MARIMON</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1143363453</t>
+  </si>
+  <si>
+    <t>ARMANDO JOSE HOYOS ZUÑIGA</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1143387510</t>
+  </si>
+  <si>
+    <t>JONWUER DE LA ROSA JIMENEZ</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>7958008</t>
-  </si>
-  <si>
-    <t>ANDRES AVELINO FRIAS UTRIA</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>1143363453</t>
-  </si>
-  <si>
-    <t>ARMANDO JOSE HOYOS ZUÑIGA</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>1127586739</t>
-  </si>
-  <si>
-    <t>CARLOS ENRIQUE HURTADO MARIMON</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1143387510</t>
-  </si>
-  <si>
-    <t>JONWUER DE LA ROSA JIMENEZ</t>
-  </si>
-  <si>
-    <t>1002421744</t>
-  </si>
-  <si>
-    <t>MAYRA DANIELA MEJIA AGUILAR</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -356,7 +341,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -369,9 +356,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -571,23 +556,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,10 +600,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +656,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0BC5BF-30BE-5716-AD00-1B2809089BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B002850-E6F1-BC3C-6FDA-EDB284F4A78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,8 +1007,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A494B-4850-4363-88D9-4E6E64782282}">
-  <dimension ref="B2:J84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC68E93-BDEA-49BD-869A-E1910329D874}">
+  <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1047,7 +1032,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1092,7 +1077,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1124,12 +1109,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2364249</v>
+        <v>2041296</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1140,17 +1125,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1177,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1200,10 +1185,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>1898</v>
+        <v>29166</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1223,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>1898</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1246,10 +1231,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>1898</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1260,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>124800</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>3120000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1283,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>124800</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>3120000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1306,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F21" s="18">
         <v>36341</v>
@@ -1329,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>36341</v>
@@ -1352,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>36341</v>
@@ -1375,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>36341</v>
@@ -1398,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>36341</v>
@@ -1421,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>36341</v>
@@ -1444,13 +1429,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>36341</v>
@@ -1467,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>36341</v>
@@ -1490,13 +1475,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>36341</v>
@@ -1513,13 +1498,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>36341</v>
@@ -1536,13 +1521,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>36341</v>
@@ -1559,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>36341</v>
@@ -1582,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>36341</v>
@@ -1605,13 +1590,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>36341</v>
@@ -1628,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>36341</v>
@@ -1651,13 +1636,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>36341</v>
@@ -1674,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>21333</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1937000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1697,13 +1682,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>36341</v>
@@ -1720,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1937000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1743,13 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1766,19 +1751,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1937000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1789,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>36341</v>
@@ -1812,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>36341</v>
@@ -1835,13 +1820,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1858,13 +1843,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>36341</v>
@@ -1881,13 +1866,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>36341</v>
@@ -1904,13 +1889,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>36341</v>
@@ -1927,13 +1912,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1950,13 +1935,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1973,13 +1958,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1996,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -2019,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -2042,13 +2027,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2065,13 +2050,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>36341</v>
@@ -2088,13 +2073,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2111,13 +2096,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>36341</v>
@@ -2134,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2157,13 +2142,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2180,13 +2165,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2203,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>36341</v>
@@ -2226,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2249,13 +2234,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>36341</v>
@@ -2272,13 +2257,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2295,13 +2280,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>36341</v>
@@ -2318,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2341,13 +2326,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2364,13 +2349,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2387,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>36341</v>
@@ -2410,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2433,19 +2418,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2456,213 +2441,75 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F71" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G72" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F73" s="18">
-        <v>29166</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1768000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F75" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1768000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="18">
-        <v>21333</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1768000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F72" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G72" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="B77" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="32"/>
+      <c r="H77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E78" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G78" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C83" s="32"/>
-      <c r="H83" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="H84" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="B78" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="32"/>
+      <c r="H78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H77:J77"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
